--- a/config/default/forms/app/hts_referral.xlsx
+++ b/config/default/forms/app/hts_referral.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kemr_uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMR Client Reference</t>
   </si>
   <si>
     <t xml:space="preserve">db:person</t>
@@ -283,11 +289,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
+    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -322,6 +329,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -453,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,39 +495,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,15 +547,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,32 +1098,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y65536"/>
+  <dimension ref="A1:AL65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" activeCellId="0" sqref="3:7"/>
+      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="13:13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.8367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="81.984693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.75"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.75"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="33.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.7040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.3673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="84.9540816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="34.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="16.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,54 +1491,65 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1528,17 +1572,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1561,10 +1607,14 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -1590,14 +1640,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
@@ -1626,14 +1672,14 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1659,10 +1705,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1689,13 +1735,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1725,7 +1771,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>43</v>
@@ -1755,10 +1801,14 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1815,8 +1865,8 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1900,22 +1950,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1935,10 +1979,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
@@ -1949,7 +1993,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1969,422 +2013,433 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="C35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="B36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="B37" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
+      <c r="A38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B41" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -2393,23 +2448,46 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2467,186 +2545,186 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I37">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>AND($I36 = "", $A36 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+      <formula>AND($I37 = "", $A37 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $C36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $B36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND(NOT($G36 = ""), $H36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="containsText" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
     <cfRule type="containsText" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+  <conditionalFormatting sqref="A38:Y38">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
     <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="I38">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>AND($I37 = "", $A37 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+      <formula>AND($I38 = "", $A38 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
     <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H38">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
     <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Y38">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$952, "begin group") = COUNTIF($A$1:$A$952, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$953, "begin group") = COUNTIF($A$1:$A$953, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$943, "begin group") = COUNTIF($A$1:$A$952, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$944, "begin group") = COUNTIF($A$1:$A$953, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND($I34 = "", $A34 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+      <formula>AND($I35 = "", $A35 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $C34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $B34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND(NOT($G34 = ""), $H34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>COUNTIF($B$2:$B$1053,B34)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+      <formula>COUNTIF($B$2:$B$1054,B35)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="containsText" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D39" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D12 D14:D40" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D40:D42" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D41:D43" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2671,30 +2749,30 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B30" activeCellId="1" sqref="3:7 B30"/>
+      <selection pane="bottomLeft" activeCell="B30" activeCellId="1" sqref="13:13 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3367346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="1048514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2718,54 +2796,54 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="3:7 A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="13:13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="15.75"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.2908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>80</v>
       </c>
+      <c r="E1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="17" t="n">
+      <c r="A2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44067.4389134581</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="16"/>
+        <v>44070.4642178544</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
